--- a/微元汇接口说明.xlsx
+++ b/微元汇接口说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="197">
   <si>
     <t>接口说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2749,6 +2749,14 @@
       </rPr>
       <t>id</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若雇主选择了“不住家保姆”或者“半天钟点”。“服务人数”应取 tagID=22对应的标签;若雇主选择“全天钟点”或住家保姆，“服务人数”应取tagID=23对应的标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2875,7 +2883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2936,6 +2944,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2970,7 +2987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3075,12 +3092,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3132,13 +3143,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3182,6 +3193,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3477,26 +3510,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90:J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="49" t="s">
         <v>72</v>
       </c>
@@ -3509,7 +3543,7 @@
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="50"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -3520,7 +3554,7 @@
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="50"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -3531,41 +3565,44 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -3580,15 +3617,15 @@
       <c r="G5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="58"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="58"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -3597,13 +3634,13 @@
       <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="58"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="58"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -3612,13 +3649,13 @@
       <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -3627,13 +3664,13 @@
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -3642,13 +3679,13 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="58"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -3657,13 +3694,13 @@
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="59"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="59"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -3672,14 +3709,14 @@
       <c r="G11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="51" t="s">
@@ -3697,14 +3734,14 @@
       <c r="G12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="64"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1">
       <c r="A13" s="51"/>
-      <c r="B13" s="54"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="51"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3714,12 +3751,12 @@
       <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" s="51"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="51"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3729,12 +3766,12 @@
       <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" s="51"/>
-      <c r="B15" s="54"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="51"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3744,12 +3781,12 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1">
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
       <c r="A16" s="51"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="51"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3759,12 +3796,12 @@
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="51"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3774,12 +3811,12 @@
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="51"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3789,12 +3826,12 @@
       <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="51"/>
-      <c r="B19" s="54"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="51"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3804,12 +3841,12 @@
       <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1">
       <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="51"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3819,12 +3856,12 @@
       <c r="G20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1">
       <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="51"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3834,12 +3871,12 @@
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1">
       <c r="A22" s="51"/>
-      <c r="B22" s="54"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="51"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3849,12 +3886,12 @@
       <c r="G22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1">
       <c r="A23" s="51"/>
-      <c r="B23" s="54"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="51"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3864,12 +3901,12 @@
       <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1">
       <c r="A24" s="51"/>
-      <c r="B24" s="54"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="51"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3879,12 +3916,12 @@
       <c r="G24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="54"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="51"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3894,12 +3931,12 @@
       <c r="G25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="54"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="51"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3909,11 +3946,11 @@
       <c r="G26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="66" t="s">
         <v>191</v>
       </c>
       <c r="B27" s="35" t="s">
@@ -3940,7 +3977,7 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="69"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="9"/>
@@ -3955,7 +3992,7 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="69"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="9"/>
@@ -3970,7 +4007,7 @@
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="69"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="9"/>
@@ -3985,7 +4022,7 @@
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="69"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="9"/>
@@ -4000,7 +4037,7 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="69"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="9"/>
@@ -4015,7 +4052,7 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="69"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="9"/>
@@ -4030,7 +4067,7 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="69"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="9"/>
@@ -4045,7 +4082,7 @@
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="69"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="9"/>
@@ -4060,7 +4097,7 @@
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="69"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="9"/>
@@ -4071,7 +4108,7 @@
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="69"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="9"/>
@@ -4082,7 +4119,7 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="69"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="9"/>
@@ -4093,7 +4130,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="69"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="9"/>
@@ -4104,7 +4141,7 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="70"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="9"/>
@@ -4155,7 +4192,7 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" s="22" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="63" t="s">
         <v>190</v>
       </c>
       <c r="B43" s="39" t="s">
@@ -4180,7 +4217,7 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" s="22" customFormat="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="39"/>
       <c r="C44" s="40"/>
       <c r="D44" s="25" t="s">
@@ -4199,7 +4236,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1">
-      <c r="A45" s="67"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="39"/>
       <c r="C45" s="40"/>
       <c r="D45" s="23" t="s">
@@ -4214,7 +4251,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="72" t="s">
         <v>189</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -4241,7 +4278,7 @@
       <c r="I46" s="47"/>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1">
-      <c r="A47" s="75"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4256,7 +4293,7 @@
       <c r="I47" s="47"/>
     </row>
     <row r="48" spans="1:9" s="1" customFormat="1">
-      <c r="A48" s="75"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4271,7 +4308,7 @@
       <c r="I48" s="47"/>
     </row>
     <row r="49" spans="1:9" s="1" customFormat="1">
-      <c r="A49" s="75"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4286,7 +4323,7 @@
       <c r="I49" s="47"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1">
-      <c r="A50" s="75"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4301,7 +4338,7 @@
       <c r="I50" s="47"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1">
-      <c r="A51" s="75"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4316,7 +4353,7 @@
       <c r="I51" s="47"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1">
-      <c r="A52" s="75"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4331,7 +4368,7 @@
       <c r="I52" s="47"/>
     </row>
     <row r="53" spans="1:9" s="1" customFormat="1">
-      <c r="A53" s="75"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4346,7 +4383,7 @@
       <c r="I53" s="47"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1">
-      <c r="A54" s="75"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4361,7 +4398,7 @@
       <c r="I54" s="47"/>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1">
-      <c r="A55" s="75"/>
+      <c r="A55" s="73"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4376,7 +4413,7 @@
       <c r="I55" s="47"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1">
-      <c r="A56" s="75"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4391,7 +4428,7 @@
       <c r="I56" s="47"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1">
-      <c r="A57" s="75"/>
+      <c r="A57" s="73"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4406,7 +4443,7 @@
       <c r="I57" s="47"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1">
-      <c r="A58" s="75"/>
+      <c r="A58" s="73"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4421,7 +4458,7 @@
       <c r="I58" s="47"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1">
-      <c r="A59" s="75"/>
+      <c r="A59" s="73"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4436,7 +4473,7 @@
       <c r="I59" s="47"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1">
-      <c r="A60" s="75"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4451,7 +4488,7 @@
       <c r="I60" s="47"/>
     </row>
     <row r="61" spans="1:9" s="22" customFormat="1">
-      <c r="A61" s="75"/>
+      <c r="A61" s="73"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4466,7 +4503,7 @@
       <c r="I61" s="47"/>
     </row>
     <row r="62" spans="1:9" s="22" customFormat="1">
-      <c r="A62" s="75"/>
+      <c r="A62" s="73"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4481,7 +4518,7 @@
       <c r="I62" s="47"/>
     </row>
     <row r="63" spans="1:9" s="22" customFormat="1">
-      <c r="A63" s="75"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4496,7 +4533,7 @@
       <c r="I63" s="47"/>
     </row>
     <row r="64" spans="1:9" s="22" customFormat="1">
-      <c r="A64" s="75"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4511,7 +4548,7 @@
       <c r="I64" s="47"/>
     </row>
     <row r="65" spans="1:9" s="22" customFormat="1">
-      <c r="A65" s="75"/>
+      <c r="A65" s="73"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4526,7 +4563,7 @@
       <c r="I65" s="47"/>
     </row>
     <row r="66" spans="1:9" s="22" customFormat="1">
-      <c r="A66" s="75"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4541,7 +4578,7 @@
       <c r="I66" s="47"/>
     </row>
     <row r="67" spans="1:9" s="22" customFormat="1">
-      <c r="A67" s="75"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4556,7 +4593,7 @@
       <c r="I67" s="47"/>
     </row>
     <row r="68" spans="1:9" s="22" customFormat="1">
-      <c r="A68" s="75"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4571,7 +4608,7 @@
       <c r="I68" s="47"/>
     </row>
     <row r="69" spans="1:9" s="22" customFormat="1">
-      <c r="A69" s="75"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4586,7 +4623,7 @@
       <c r="I69" s="47"/>
     </row>
     <row r="70" spans="1:9" s="22" customFormat="1">
-      <c r="A70" s="75"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4601,7 +4638,7 @@
       <c r="I70" s="47"/>
     </row>
     <row r="71" spans="1:9" s="22" customFormat="1">
-      <c r="A71" s="75"/>
+      <c r="A71" s="73"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4616,7 +4653,7 @@
       <c r="I71" s="47"/>
     </row>
     <row r="72" spans="1:9" s="22" customFormat="1">
-      <c r="A72" s="75"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -4631,7 +4668,7 @@
       <c r="I72" s="47"/>
     </row>
     <row r="73" spans="1:9" s="22" customFormat="1">
-      <c r="A73" s="76"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
@@ -4646,7 +4683,7 @@
       <c r="I73" s="48"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="69" t="s">
         <v>192</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -4658,7 +4695,7 @@
       <c r="D74" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="88" t="s">
         <v>87</v>
       </c>
       <c r="F74" s="14" t="s">
@@ -4673,13 +4710,13 @@
       <c r="I74" s="37"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="72"/>
+      <c r="A75" s="70"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="89" t="s">
         <v>113</v>
       </c>
       <c r="F75" s="13"/>
@@ -4687,14 +4724,14 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="72"/>
+    <row r="76" spans="1:9" ht="27.75">
+      <c r="A76" s="70"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="89" t="s">
         <v>141</v>
       </c>
       <c r="F76" s="13"/>
@@ -4703,13 +4740,13 @@
       <c r="I76" s="37"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="72"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="89" t="s">
         <v>68</v>
       </c>
       <c r="F77" s="13"/>
@@ -4717,14 +4754,14 @@
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="72"/>
+    <row r="78" spans="1:9" ht="27.75">
+      <c r="A78" s="70"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="89" t="s">
         <v>116</v>
       </c>
       <c r="F78" s="13"/>
@@ -4732,14 +4769,14 @@
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="72"/>
+    <row r="79" spans="1:9" ht="27.75">
+      <c r="A79" s="70"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="89" t="s">
         <v>142</v>
       </c>
       <c r="F79" s="13"/>
@@ -4748,13 +4785,13 @@
       <c r="I79" s="37"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="72"/>
+      <c r="A80" s="70"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="89" t="s">
         <v>118</v>
       </c>
       <c r="F80" s="13"/>
@@ -4762,14 +4799,14 @@
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="72"/>
+    <row r="81" spans="1:10" ht="27.75">
+      <c r="A81" s="70"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="89" t="s">
         <v>144</v>
       </c>
       <c r="F81" s="13"/>
@@ -4777,14 +4814,14 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="72"/>
+    <row r="82" spans="1:10" ht="27.75">
+      <c r="A82" s="70"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="89" t="s">
         <v>145</v>
       </c>
       <c r="F82" s="13"/>
@@ -4792,14 +4829,14 @@
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="72"/>
+    <row r="83" spans="1:10" ht="27.75">
+      <c r="A83" s="70"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="89" t="s">
         <v>146</v>
       </c>
       <c r="F83" s="13"/>
@@ -4807,14 +4844,14 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="72"/>
+    <row r="84" spans="1:10" ht="27.75">
+      <c r="A84" s="70"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="89" t="s">
         <v>143</v>
       </c>
       <c r="F84" s="13"/>
@@ -4822,14 +4859,14 @@
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="72"/>
+    <row r="85" spans="1:10" ht="27.75">
+      <c r="A85" s="70"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="89" t="s">
         <v>147</v>
       </c>
       <c r="F85" s="13"/>
@@ -4837,14 +4874,14 @@
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="72"/>
+    <row r="86" spans="1:10" ht="27.75">
+      <c r="A86" s="70"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="89" t="s">
         <v>148</v>
       </c>
       <c r="F86" s="13"/>
@@ -4852,14 +4889,14 @@
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="72"/>
+    <row r="87" spans="1:10" ht="27.75">
+      <c r="A87" s="70"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="89" t="s">
         <v>149</v>
       </c>
       <c r="F87" s="13"/>
@@ -4867,14 +4904,14 @@
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="72"/>
+    <row r="88" spans="1:10" ht="27.75">
+      <c r="A88" s="70"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="89" t="s">
         <v>150</v>
       </c>
       <c r="F88" s="13"/>
@@ -4882,19 +4919,19 @@
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="73"/>
+    <row r="89" spans="1:10">
+      <c r="A89" s="71"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+      <c r="E89" s="90"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="77" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" s="75" t="s">
         <v>152</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -4915,9 +4952,12 @@
         <v>176</v>
       </c>
       <c r="I90" s="34"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="78"/>
+      <c r="J90" s="94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="76"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -4930,9 +4970,10 @@
       </c>
       <c r="H91" s="34"/>
       <c r="I91" s="34"/>
-    </row>
-    <row r="92" spans="1:9" ht="98.25">
-      <c r="A92" s="78"/>
+      <c r="J91" s="95"/>
+    </row>
+    <row r="92" spans="1:10" ht="98.25">
+      <c r="A92" s="76"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -4945,9 +4986,10 @@
       </c>
       <c r="H92" s="34"/>
       <c r="I92" s="34"/>
-    </row>
-    <row r="93" spans="1:9" ht="71.25">
-      <c r="A93" s="78"/>
+      <c r="J92" s="95"/>
+    </row>
+    <row r="93" spans="1:10" ht="71.25">
+      <c r="A93" s="76"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -4960,9 +5002,10 @@
       </c>
       <c r="H93" s="34"/>
       <c r="I93" s="34"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="78"/>
+      <c r="J93" s="95"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="76"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -4975,9 +5018,10 @@
       </c>
       <c r="H94" s="34"/>
       <c r="I94" s="34"/>
-    </row>
-    <row r="95" spans="1:9" ht="68.25">
-      <c r="A95" s="78"/>
+      <c r="J94" s="95"/>
+    </row>
+    <row r="95" spans="1:10" ht="68.25">
+      <c r="A95" s="76"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -4990,9 +5034,10 @@
       </c>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
-    </row>
-    <row r="96" spans="1:9" ht="85.5">
-      <c r="A96" s="78"/>
+      <c r="J95" s="95"/>
+    </row>
+    <row r="96" spans="1:10" ht="85.5">
+      <c r="A96" s="76"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -5005,9 +5050,10 @@
       </c>
       <c r="H96" s="34"/>
       <c r="I96" s="34"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="78"/>
+      <c r="J96" s="95"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="76"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -5016,9 +5062,10 @@
       <c r="G97" s="9"/>
       <c r="H97" s="34"/>
       <c r="I97" s="34"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="78"/>
+      <c r="J97" s="95"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="76"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -5027,9 +5074,10 @@
       <c r="G98" s="9"/>
       <c r="H98" s="34"/>
       <c r="I98" s="34"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="78"/>
+      <c r="J98" s="95"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="76"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -5038,9 +5086,10 @@
       <c r="G99" s="9"/>
       <c r="H99" s="34"/>
       <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="78"/>
+      <c r="J99" s="95"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="76"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -5049,9 +5098,10 @@
       <c r="G100" s="9"/>
       <c r="H100" s="34"/>
       <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="78"/>
+      <c r="J100" s="95"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="76"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -5060,9 +5110,10 @@
       <c r="G101" s="9"/>
       <c r="H101" s="34"/>
       <c r="I101" s="34"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="78"/>
+      <c r="J101" s="95"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="76"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -5071,9 +5122,10 @@
       <c r="G102" s="9"/>
       <c r="H102" s="34"/>
       <c r="I102" s="34"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="78"/>
+      <c r="J102" s="95"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="76"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -5082,9 +5134,10 @@
       <c r="G103" s="9"/>
       <c r="H103" s="34"/>
       <c r="I103" s="34"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="78"/>
+      <c r="J103" s="95"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="76"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -5093,9 +5146,10 @@
       <c r="G104" s="9"/>
       <c r="H104" s="34"/>
       <c r="I104" s="34"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="78"/>
+      <c r="J104" s="95"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="76"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -5104,9 +5158,10 @@
       <c r="G105" s="9"/>
       <c r="H105" s="34"/>
       <c r="I105" s="34"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="78"/>
+      <c r="J105" s="95"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="76"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -5115,9 +5170,10 @@
       <c r="G106" s="9"/>
       <c r="H106" s="34"/>
       <c r="I106" s="34"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="78"/>
+      <c r="J106" s="95"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="76"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -5126,9 +5182,10 @@
       <c r="G107" s="9"/>
       <c r="H107" s="34"/>
       <c r="I107" s="34"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="78"/>
+      <c r="J107" s="95"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="76"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -5137,9 +5194,10 @@
       <c r="G108" s="9"/>
       <c r="H108" s="34"/>
       <c r="I108" s="34"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="78"/>
+      <c r="J108" s="95"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="76"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -5148,9 +5206,10 @@
       <c r="G109" s="9"/>
       <c r="H109" s="34"/>
       <c r="I109" s="34"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="78"/>
+      <c r="J109" s="95"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="76"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -5159,9 +5218,10 @@
       <c r="G110" s="9"/>
       <c r="H110" s="34"/>
       <c r="I110" s="34"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="78"/>
+      <c r="J110" s="95"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="76"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -5170,9 +5230,10 @@
       <c r="G111" s="9"/>
       <c r="H111" s="34"/>
       <c r="I111" s="34"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="78"/>
+      <c r="J111" s="95"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="76"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -5181,9 +5242,10 @@
       <c r="G112" s="9"/>
       <c r="H112" s="34"/>
       <c r="I112" s="34"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="78"/>
+      <c r="J112" s="95"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="76"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -5192,9 +5254,10 @@
       <c r="G113" s="9"/>
       <c r="H113" s="34"/>
       <c r="I113" s="34"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="78"/>
+      <c r="J113" s="95"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="76"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -5203,9 +5266,10 @@
       <c r="G114" s="9"/>
       <c r="H114" s="34"/>
       <c r="I114" s="34"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="78"/>
+      <c r="J114" s="95"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="76"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -5214,9 +5278,10 @@
       <c r="G115" s="9"/>
       <c r="H115" s="34"/>
       <c r="I115" s="34"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="78"/>
+      <c r="J115" s="95"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="76"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -5225,9 +5290,10 @@
       <c r="G116" s="9"/>
       <c r="H116" s="34"/>
       <c r="I116" s="34"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="78"/>
+      <c r="J116" s="95"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="76"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -5236,9 +5302,10 @@
       <c r="G117" s="9"/>
       <c r="H117" s="34"/>
       <c r="I117" s="34"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="79"/>
+      <c r="J117" s="95"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="77"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -5247,316 +5314,318 @@
       <c r="G118" s="9"/>
       <c r="H118" s="34"/>
       <c r="I118" s="34"/>
-    </row>
-    <row r="119" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A119" s="80" t="s">
+      <c r="J118" s="95"/>
+    </row>
+    <row r="119" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A119" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="C119" s="82" t="s">
+      <c r="C119" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="82" t="s">
+      <c r="D119" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="E119" s="83" t="s">
+      <c r="E119" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="F119" s="82" t="s">
+      <c r="F119" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G119" s="81" t="s">
+      <c r="G119" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="H119" s="84" t="s">
+      <c r="H119" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="I119" s="85"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="86"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="82" t="s">
+      <c r="I119" s="83"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="84"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G120" s="81" t="s">
+      <c r="G120" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="H120" s="85"/>
-      <c r="I120" s="85"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="86"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="82" t="s">
+      <c r="H120" s="83"/>
+      <c r="I120" s="83"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="84"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="G121" s="82" t="s">
+      <c r="G121" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="86"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="82" t="s">
+      <c r="H121" s="83"/>
+      <c r="I121" s="83"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="84"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G122" s="81" t="s">
+      <c r="G122" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="H122" s="85"/>
-      <c r="I122" s="85"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="86"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="82" t="s">
+      <c r="H122" s="83"/>
+      <c r="I122" s="83"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="84"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="81"/>
+      <c r="F123" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="G123" s="81" t="s">
+      <c r="G123" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="86"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="82" t="s">
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="84"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="81"/>
+      <c r="F124" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="G124" s="81" t="s">
+      <c r="G124" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="H124" s="85"/>
-      <c r="I124" s="85"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="86"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="82" t="s">
+      <c r="H124" s="83"/>
+      <c r="I124" s="83"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="84"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="80"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="81"/>
+      <c r="F125" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="G125" s="81" t="s">
+      <c r="G125" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="86"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="87" t="s">
+      <c r="H125" s="83"/>
+      <c r="I125" s="83"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="84"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="E126" s="81" t="s">
+      <c r="E126" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="F126" s="82" t="s">
+      <c r="F126" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="G126" s="81" t="s">
+      <c r="G126" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="H126" s="85"/>
-      <c r="I126" s="85"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="86"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="82"/>
-      <c r="D127" s="82" t="s">
+      <c r="H126" s="83"/>
+      <c r="I126" s="83"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="84"/>
+      <c r="B127" s="80"/>
+      <c r="C127" s="80"/>
+      <c r="D127" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="E127" s="81" t="s">
+      <c r="E127" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="F127" s="82"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="85"/>
-      <c r="I127" s="85"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="86"/>
-      <c r="B128" s="82"/>
-      <c r="C128" s="82"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="88"/>
-      <c r="F128" s="82"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="85"/>
-      <c r="I128" s="85"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="84"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="80"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="86"/>
+      <c r="F128" s="80"/>
+      <c r="G128" s="80"/>
+      <c r="H128" s="83"/>
+      <c r="I128" s="83"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="86"/>
-      <c r="B129" s="82"/>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="85"/>
-      <c r="I129" s="85"/>
+      <c r="A129" s="84"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="86"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="80"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="83"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="86"/>
-      <c r="B130" s="82"/>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="88"/>
-      <c r="F130" s="82"/>
-      <c r="G130" s="82"/>
-      <c r="H130" s="85"/>
-      <c r="I130" s="85"/>
+      <c r="A130" s="84"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="80"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="80"/>
+      <c r="H130" s="83"/>
+      <c r="I130" s="83"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="86"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="88"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="82"/>
-      <c r="H131" s="85"/>
-      <c r="I131" s="85"/>
+      <c r="A131" s="84"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="80"/>
+      <c r="H131" s="83"/>
+      <c r="I131" s="83"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="86"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="82"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="88"/>
-      <c r="F132" s="82"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="85"/>
-      <c r="I132" s="85"/>
+      <c r="A132" s="84"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="86"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="83"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="86"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="82"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="82"/>
-      <c r="G133" s="82"/>
-      <c r="H133" s="85"/>
-      <c r="I133" s="85"/>
+      <c r="A133" s="84"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="83"/>
+      <c r="I133" s="83"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="86"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="82"/>
-      <c r="D134" s="82"/>
-      <c r="E134" s="88"/>
-      <c r="F134" s="82"/>
-      <c r="G134" s="82"/>
-      <c r="H134" s="85"/>
-      <c r="I134" s="85"/>
+      <c r="A134" s="84"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="86"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="83"/>
+      <c r="I134" s="83"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="86"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="82"/>
-      <c r="D135" s="82"/>
-      <c r="E135" s="88"/>
-      <c r="F135" s="82"/>
-      <c r="G135" s="82"/>
-      <c r="H135" s="85"/>
-      <c r="I135" s="85"/>
+      <c r="A135" s="84"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="86"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="83"/>
+      <c r="I135" s="83"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="86"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="82"/>
-      <c r="D136" s="82"/>
-      <c r="E136" s="88"/>
-      <c r="F136" s="82"/>
-      <c r="G136" s="82"/>
-      <c r="H136" s="85"/>
-      <c r="I136" s="85"/>
+      <c r="A136" s="84"/>
+      <c r="B136" s="80"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="86"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="80"/>
+      <c r="H136" s="83"/>
+      <c r="I136" s="83"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="86"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="82"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="88"/>
-      <c r="F137" s="82"/>
-      <c r="G137" s="82"/>
-      <c r="H137" s="85"/>
-      <c r="I137" s="85"/>
+      <c r="A137" s="84"/>
+      <c r="B137" s="80"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="80"/>
+      <c r="E137" s="86"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="83"/>
+      <c r="I137" s="83"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="86"/>
-      <c r="B138" s="82"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="88"/>
-      <c r="F138" s="82"/>
-      <c r="G138" s="82"/>
-      <c r="H138" s="85"/>
-      <c r="I138" s="85"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="86"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="83"/>
+      <c r="I138" s="83"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="86"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="82"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="88"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82"/>
-      <c r="H139" s="85"/>
-      <c r="I139" s="85"/>
+      <c r="A139" s="84"/>
+      <c r="B139" s="80"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="86"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="83"/>
+      <c r="I139" s="83"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="86"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="88"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="85"/>
-      <c r="I140" s="85"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="80"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="86"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="80"/>
+      <c r="H140" s="83"/>
+      <c r="I140" s="83"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="89"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="88"/>
-      <c r="F141" s="82"/>
-      <c r="G141" s="82"/>
-      <c r="H141" s="85"/>
-      <c r="I141" s="85"/>
+      <c r="A141" s="87"/>
+      <c r="B141" s="80"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="86"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="83"/>
+      <c r="I141" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="A90:A118"/>
     <mergeCell ref="A119:A141"/>
+    <mergeCell ref="J90:J118"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="H4:I4"/>
